--- a/Jogos_da_Semana_FlashScore_2024-12-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-19.xlsx
@@ -496,197 +496,197 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over05_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_FT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over15_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under15_FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over25_FT</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under25_FT</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over05_HT</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_HT</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0_HT</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1_HT</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0_HT</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1_HT</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2_HT</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_FT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_FT</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -747,136 +747,140 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="J2" t="n">
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>12.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>3.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.32</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>3.1</v>
+        <v>2.07</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>1.31</v>
       </c>
       <c r="T2" t="n">
-        <v>1.31</v>
+        <v>3.15</v>
       </c>
       <c r="U2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W2" t="n">
         <v>45</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>250</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>90</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>700</v>
       </c>
-      <c r="Y2" t="n">
-        <v>600</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>400</v>
-      </c>
       <c r="AA2" t="n">
-        <v>11.25</v>
+        <v>700</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
       <c r="AC2" t="n">
-        <v>55</v>
+        <v>11.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>400</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.9</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.7</v>
+        <v>450</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="AI2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>175</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AR2" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>175</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT2" t="n">
         <v>2.7</v>
       </c>
-      <c r="AS2" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AV2" t="n">
         <v>22</v>
       </c>
-      <c r="AU2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX2" t="n">
         <v>50</v>
       </c>
-      <c r="AW2" t="n">
-        <v>450</v>
-      </c>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AY2" t="n">
+        <v>500</v>
+      </c>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
@@ -914,54 +918,150 @@
           <t>GV San Jose</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W3" t="n">
+        <v>11</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>101</v>
+      </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1015,121 +1115,121 @@
         <v>2.63</v>
       </c>
       <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.36</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>2.15</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>1.5</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>2.5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>2</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>1.73</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>9</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>19</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>13</v>
-      </c>
-      <c r="X4" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>34</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
       </c>
       <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>7</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
         <v>19</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>67</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>6</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AH4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>9</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>17</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
         <v>17</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
         <v>34</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>1000</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AN4" t="n">
         <v>6</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AO4" t="n">
         <v>23</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AP4" t="n">
         <v>34</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AQ4" t="n">
         <v>2.5</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AS4" t="n">
         <v>67</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AT4" t="n">
         <v>3.75</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AU4" t="n">
         <v>11</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AV4" t="n">
         <v>23</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AW4" t="n">
         <v>41</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AX4" t="n">
         <v>67</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AY4" t="n">
         <v>201</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>10</v>
       </c>
       <c r="AZ4" t="n">
         <v>81</v>
@@ -1175,145 +1275,145 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="K5" t="n">
         <v>1.98</v>
       </c>
       <c r="L5" t="n">
-        <v>4.55</v>
+        <v>4.8</v>
       </c>
       <c r="M5" t="n">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.65</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="n">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>1.57</v>
+        <v>2.55</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>2.32</v>
       </c>
       <c r="R5" t="n">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W5" t="n">
         <v>5.8</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>8.5</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>8.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>18.5</v>
-      </c>
       <c r="Z5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB5" t="n">
         <v>35</v>
       </c>
-      <c r="AA5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AC5" t="n">
-        <v>15.5</v>
+        <v>5.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>90</v>
+        <v>5.9</v>
       </c>
       <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO5" t="n">
         <v>10</v>
       </c>
-      <c r="AF5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AP5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AS5" t="n">
         <v>75</v>
       </c>
-      <c r="AI5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>24</v>
-      </c>
       <c r="AT5" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW5" t="n">
         <v>175</v>
       </c>
-      <c r="AW5" t="n">
-        <v>400</v>
-      </c>
       <c r="AX5" t="n">
-        <v>1.1</v>
+        <v>250</v>
       </c>
       <c r="AY5" t="n">
-        <v>5.8</v>
+        <v>500</v>
       </c>
       <c r="AZ5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB5" t="n">
         <v>300</v>
@@ -1435,145 +1535,145 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.1</v>
       </c>
-      <c r="L7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>8.25</v>
       </c>
-      <c r="V7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>10.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.7</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>50</v>
+        <v>6.3</v>
       </c>
       <c r="AE7" t="n">
         <v>12.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AS7" t="n">
         <v>60</v>
       </c>
-      <c r="AI7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="AT7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AU7" t="n">
         <v>21</v>
       </c>
-      <c r="AT7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>110</v>
-      </c>
       <c r="AV7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AX7" t="n">
         <v>150</v>
       </c>
-      <c r="AW7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>1.05</v>
-      </c>
       <c r="AY7" t="n">
-        <v>7.7</v>
+        <v>350</v>
       </c>
       <c r="AZ7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BA7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB7" t="n">
         <v>200</v>
@@ -1631,120 +1731,120 @@
         <v>10</v>
       </c>
       <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.36</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>3</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>2.15</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>1.44</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>2.63</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>2.75</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>1.4</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>4.75</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>5</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>9.5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
         <v>15</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>41</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>8</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AE8" t="n">
         <v>34</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AF8" t="n">
         <v>126</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
         <v>17</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
         <v>41</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>34</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>151</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
         <v>81</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AL8" t="n">
         <v>101</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>101</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AN8" t="n">
         <v>3</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AO8" t="n">
         <v>6.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AP8" t="n">
         <v>26</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AQ8" t="n">
         <v>2.63</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
         <v>12</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AS8" t="n">
         <v>101</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
         <v>10</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AU8" t="n">
         <v>51</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AV8" t="n">
         <v>51</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AW8" t="n">
         <v>351</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AX8" t="n">
         <v>301</v>
       </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>8</v>
-      </c>
+      <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="n">
         <v>21</v>
       </c>
@@ -1807,121 +1907,121 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.4</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>2.75</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>2.3</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>1.6</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>1.5</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>2.5</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>2</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>1.73</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>7</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>11</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>10</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>23</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
         <v>21</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>34</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
         <v>8</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
         <v>6.5</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
         <v>17</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
         <v>67</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AH9" t="n">
         <v>13</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>11</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>29</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
         <v>26</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>41</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>301</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AN9" t="n">
         <v>4.33</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AO9" t="n">
         <v>15</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AP9" t="n">
         <v>26</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
         <v>2.5</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AR9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AS9" t="n">
         <v>67</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AT9" t="n">
         <v>4.75</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AU9" t="n">
         <v>17</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AV9" t="n">
         <v>29</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AW9" t="n">
         <v>51</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AX9" t="n">
         <v>81</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AY9" t="n">
         <v>251</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>8</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
@@ -1967,148 +2067,148 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.5</v>
       </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="U10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W10" t="n">
         <v>5.5</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
         <v>7.5</v>
       </c>
-      <c r="W10" t="n">
-        <v>9</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
         <v>7</v>
       </c>
-      <c r="AB10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
         <v>21</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
         <v>81</v>
       </c>
-      <c r="AE10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>23</v>
-      </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>51</v>
       </c>
       <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
         <v>900</v>
       </c>
-      <c r="AL10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>10</v>
-      </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>3.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.38</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR10" t="n">
         <v>9.5</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AS10" t="n">
         <v>81</v>
       </c>
-      <c r="AR10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="AT10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>29</v>
       </c>
-      <c r="AT10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>34</v>
-      </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2163,121 +2263,121 @@
         <v>1.67</v>
       </c>
       <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.17</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>1.53</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>2.4</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>1.25</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>3.75</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>2</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>1.75</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>23</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>51</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>26</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>126</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
         <v>67</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>51</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AC11" t="n">
         <v>17</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
         <v>12</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AE11" t="n">
         <v>23</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AF11" t="n">
         <v>67</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>8</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AH11" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>9</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>8</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
         <v>11</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
         <v>26</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>401</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AN11" t="n">
         <v>10</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AO11" t="n">
         <v>41</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AP11" t="n">
         <v>41</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AQ11" t="n">
         <v>3.75</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
         <v>9.5</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AS11" t="n">
         <v>51</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AT11" t="n">
         <v>3.25</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AU11" t="n">
         <v>5.5</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AV11" t="n">
         <v>17</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AW11" t="n">
         <v>15</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AX11" t="n">
         <v>34</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AY11" t="n">
         <v>101</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>17</v>
       </c>
       <c r="AZ11" t="n">
         <v>201</v>
@@ -2345,121 +2445,121 @@
         <v>4.75</v>
       </c>
       <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.4</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>2.75</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>2.25</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>1.5</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>2.5</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>2</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>1.73</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>6</v>
       </c>
-      <c r="V12" t="n">
+      <c r="X12" t="n">
         <v>8</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>9</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>15</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AA12" t="n">
         <v>17</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AB12" t="n">
         <v>34</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AC12" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AD12" t="n">
         <v>6.5</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AE12" t="n">
         <v>19</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AF12" t="n">
         <v>67</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AG12" t="n">
         <v>10</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AH12" t="n">
         <v>21</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
       </c>
       <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
         <v>1000</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AN12" t="n">
         <v>3.75</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AO12" t="n">
         <v>11</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AP12" t="n">
         <v>23</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AQ12" t="n">
         <v>2.5</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AR12" t="n">
         <v>9</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AS12" t="n">
         <v>67</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AT12" t="n">
         <v>6</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AU12" t="n">
         <v>23</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AV12" t="n">
         <v>34</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AW12" t="n">
         <v>81</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AX12" t="n">
         <v>126</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AY12" t="n">
         <v>301</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>9</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
@@ -2527,121 +2627,121 @@
         <v>4.5</v>
       </c>
       <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.29</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>3.5</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>1.98</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>1.88</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>1.4</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>2.75</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>1.8</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>1.91</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>7.5</v>
       </c>
-      <c r="V13" t="n">
+      <c r="X13" t="n">
         <v>9</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
         <v>8.5</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>15</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AA13" t="n">
         <v>15</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AB13" t="n">
         <v>26</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AC13" t="n">
         <v>10</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AD13" t="n">
         <v>6.5</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AE13" t="n">
         <v>15</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AF13" t="n">
         <v>51</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AG13" t="n">
         <v>12</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AH13" t="n">
         <v>21</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
         <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>34</v>
       </c>
       <c r="AJ13" t="n">
         <v>41</v>
       </c>
       <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
         <v>251</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AN13" t="n">
         <v>4</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AO13" t="n">
         <v>10</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AP13" t="n">
         <v>21</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AQ13" t="n">
         <v>2.75</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AR13" t="n">
         <v>8</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AS13" t="n">
         <v>51</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AT13" t="n">
         <v>6</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AU13" t="n">
         <v>21</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AV13" t="n">
         <v>29</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AW13" t="n">
         <v>67</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AX13" t="n">
         <v>101</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AY13" t="n">
         <v>201</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>11</v>
       </c>
       <c r="AZ13" t="n">
         <v>34</v>
@@ -2709,121 +2809,121 @@
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.2</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>4.33</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>1.7</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>1.33</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>3.25</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>1.57</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>2.25</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
         <v>9.5</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
         <v>12</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>9</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>19</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AA14" t="n">
         <v>15</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AB14" t="n">
         <v>23</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AC14" t="n">
         <v>13</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AD14" t="n">
         <v>7</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>41</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
       </c>
       <c r="AH14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>34</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AK14" t="n">
         <v>23</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AL14" t="n">
         <v>29</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AM14" t="n">
         <v>151</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AN14" t="n">
         <v>4.33</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AO14" t="n">
         <v>11</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AP14" t="n">
         <v>19</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AQ14" t="n">
         <v>3.25</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AR14" t="n">
         <v>7.5</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AS14" t="n">
         <v>41</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AT14" t="n">
         <v>5.5</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AU14" t="n">
         <v>17</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AV14" t="n">
         <v>23</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AW14" t="n">
         <v>51</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AX14" t="n">
         <v>67</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AY14" t="n">
         <v>151</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>34</v>
@@ -2891,119 +2991,119 @@
         <v>4.75</v>
       </c>
       <c r="M15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.62</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>2.2</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>3.1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>1.67</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>2.1</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>2.5</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>1.5</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>5</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
         <v>8.5</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>11</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>21</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AA15" t="n">
         <v>23</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AB15" t="n">
         <v>41</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AC15" t="n">
         <v>5.5</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AD15" t="n">
         <v>6</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AE15" t="n">
         <v>21</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AF15" t="n">
         <v>101</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AG15" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AH15" t="n">
         <v>17</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
         <v>15</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
         <v>41</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AK15" t="n">
         <v>41</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
         <v>51</v>
       </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="n">
         <v>4</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AO15" t="n">
         <v>15</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AP15" t="n">
         <v>34</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AQ15" t="n">
         <v>2.1</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AR15" t="n">
         <v>10</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AS15" t="n">
         <v>81</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AT15" t="n">
         <v>5.5</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AU15" t="n">
         <v>23</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AV15" t="n">
         <v>41</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>151</v>
       </c>
       <c r="AW15" t="n">
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.13</v>
+        <v>151</v>
       </c>
       <c r="AY15" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="AZ15" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-19.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="L2" t="n">
         <v>1.47</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.19</v>
@@ -777,46 +777,46 @@
         <v>3.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R2" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="U2" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X2" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Y2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="n">
         <v>700</v>
       </c>
       <c r="AA2" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AB2" t="n">
         <v>450</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE2" t="n">
         <v>60</v>
@@ -825,10 +825,10 @@
         <v>450</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="AI2" t="n">
         <v>12.5</v>
@@ -840,25 +840,25 @@
         <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
         <v>101</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AP2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AR2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AS2" t="n">
         <v>200</v>
@@ -867,13 +867,13 @@
         <v>2.7</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AX2" t="n">
         <v>50</v>
@@ -919,55 +919,51 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12</v>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="T3" t="n">
-        <v>3.26</v>
+        <v>3.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -976,70 +972,70 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN3" t="n">
         <v>4.75</v>
       </c>
       <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AU3" t="n">
         <v>13</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>15</v>
       </c>
       <c r="AV3" t="n">
         <v>21</v>
@@ -1060,7 +1056,7 @@
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1142,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W4" t="n">
         <v>9</v>
@@ -1275,28 +1271,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I5" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="J5" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="L5" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.45</v>
@@ -1305,10 +1301,10 @@
         <v>2.55</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1317,103 +1313,103 @@
         <v>2.42</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
         <v>5.8</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>35</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL5" t="n">
         <v>55</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>65</v>
       </c>
       <c r="AM5" t="n">
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.42</v>
       </c>
       <c r="AR5" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AS5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AT5" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AW5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AX5" t="n">
         <v>175</v>
       </c>
-      <c r="AX5" t="n">
-        <v>250</v>
-      </c>
       <c r="AY5" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AZ5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="BA5" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB5" t="n">
         <v>300</v>
@@ -1535,148 +1531,148 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L7" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="W7" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="X7" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD7" t="n">
         <v>6.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG7" t="n">
         <v>10.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM7" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AO7" t="n">
         <v>10.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AR7" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AS7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AT7" t="n">
         <v>5.6</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AW7" t="n">
         <v>120</v>
       </c>
       <c r="AX7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AY7" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AZ7" t="n">
         <v>40</v>
       </c>
       <c r="BA7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BB7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1713,13 +1709,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
         <v>1.91</v>
@@ -1731,10 +1727,10 @@
         <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1743,10 +1739,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1767,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>7.5</v>
@@ -1779,7 +1775,7 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>9.5</v>
@@ -1788,7 +1784,7 @@
         <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG8" t="n">
         <v>17</v>
@@ -1797,13 +1793,13 @@
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
         <v>151</v>
       </c>
       <c r="AK8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
         <v>101</v>
@@ -1852,7 +1848,7 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -1892,16 +1888,16 @@
         <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>3.75</v>
@@ -1913,22 +1909,22 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
@@ -1937,10 +1933,10 @@
         <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -1952,13 +1948,13 @@
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -1967,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK9" t="n">
         <v>29</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -1994,34 +1990,34 @@
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AR9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AS9" t="n">
         <v>67</v>
       </c>
       <c r="AT9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AW9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AX9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AY9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
@@ -2067,46 +2063,46 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
         <v>2.25</v>
@@ -2118,22 +2114,22 @@
         <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
@@ -2145,13 +2141,13 @@
         <v>81</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
         <v>51</v>
@@ -2166,25 +2162,25 @@
         <v>900</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AR10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
         <v>81</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AU10" t="n">
         <v>34</v>
@@ -2202,13 +2198,13 @@
         <v>301</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2791,22 +2787,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2842,7 +2838,7 @@
         <v>9.5</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
@@ -2854,7 +2850,7 @@
         <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>13</v>
@@ -2869,7 +2865,7 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>19</v>
@@ -2881,7 +2877,7 @@
         <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
         <v>29</v>
@@ -2973,13 +2969,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
         <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -3003,10 +2999,10 @@
         <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
         <v>1.67</v>
@@ -3030,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
         <v>23</v>
@@ -3045,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
         <v>101</v>
@@ -3073,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>34</v>
@@ -3091,13 +3087,13 @@
         <v>5.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AV15" t="n">
         <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AX15" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-19.xlsx
@@ -750,16 +750,16 @@
         <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
         <v>1.12</v>
       </c>
       <c r="J2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.47</v>
@@ -786,13 +786,13 @@
         <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.32</v>
+        <v>3.28</v>
       </c>
       <c r="U2" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W2" t="n">
         <v>40</v>
@@ -810,10 +810,10 @@
         <v>600</v>
       </c>
       <c r="AB2" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>16.5</v>
@@ -825,10 +825,10 @@
         <v>450</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AI2" t="n">
         <v>12.5</v>
@@ -837,7 +837,7 @@
         <v>5.3</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL2" t="n">
         <v>65</v>
@@ -864,13 +864,13 @@
         <v>200</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU2" t="n">
         <v>4.3</v>
       </c>
       <c r="AV2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>9.75</v>
@@ -919,66 +919,70 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+        <v>2.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="T3" t="n">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V3" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
@@ -993,52 +997,52 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL3" t="n">
         <v>23</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>151</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AR3" t="n">
         <v>7.5</v>
       </c>
       <c r="AS3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AU3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
         <v>41</v>
@@ -1050,13 +1054,13 @@
         <v>126</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1093,7 +1097,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
@@ -1102,7 +1106,7 @@
         <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1138,13 +1142,13 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
         <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1159,7 +1163,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1171,7 +1175,7 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH4" t="n">
         <v>8.5</v>
@@ -1231,7 +1235,7 @@
         <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
         <v>301</v>
@@ -1271,148 +1275,148 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="H5" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="K5" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="L5" t="n">
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="P5" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
       </c>
-      <c r="Y5" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH5" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK5" t="n">
         <v>45</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="AR5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AS5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AT5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AU5" t="n">
         <v>24</v>
       </c>
       <c r="AV5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AW5" t="n">
         <v>150</v>
       </c>
       <c r="AX5" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AY5" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AZ5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB5" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1531,145 +1535,145 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="K7" t="n">
         <v>2.02</v>
       </c>
       <c r="L7" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AO7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AS7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AT7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AW7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX7" t="n">
         <v>120</v>
       </c>
-      <c r="AX7" t="n">
-        <v>175</v>
-      </c>
       <c r="AY7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AZ7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>
@@ -1727,10 +1731,10 @@
         <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1739,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1757,7 +1761,7 @@
         <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
         <v>5</v>
@@ -1775,7 +1779,7 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>9.5</v>
@@ -1784,7 +1788,7 @@
         <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="n">
         <v>17</v>
@@ -1796,13 +1800,13 @@
         <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AK8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="n">
         <v>101</v>
@@ -1814,7 +1818,7 @@
         <v>6.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>2.63</v>
@@ -1848,7 +1852,7 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -1900,13 +1904,13 @@
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1942,13 +1946,13 @@
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
         <v>7.5</v>
@@ -2063,28 +2067,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2093,34 +2097,34 @@
         <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.53</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2129,28 +2133,28 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>81</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2162,16 +2166,16 @@
         <v>900</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
@@ -2180,7 +2184,7 @@
         <v>81</v>
       </c>
       <c r="AT10" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AU10" t="n">
         <v>34</v>
@@ -2189,19 +2193,19 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AY10" t="n">
         <v>301</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
         <v>251</v>
@@ -2441,22 +2445,22 @@
         <v>4.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2629,16 +2633,16 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2790,10 +2794,10 @@
         <v>2.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
         <v>2.63</v>
@@ -2805,10 +2809,10 @@
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2817,16 +2821,16 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
         <v>1.57</v>
@@ -2835,7 +2839,7 @@
         <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
@@ -2853,10 +2857,10 @@
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
@@ -2877,13 +2881,13 @@
         <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
         <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN14" t="n">
         <v>4.33</v>
@@ -2895,7 +2899,7 @@
         <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AR14" t="n">
         <v>7.5</v>
@@ -2919,7 +2923,7 @@
         <v>67</v>
       </c>
       <c r="AY14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AZ14" t="n">
         <v>34</v>
@@ -2928,7 +2932,7 @@
         <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -2999,10 +3003,10 @@
         <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
         <v>1.67</v>
